--- a/data/osm/plant_update.xlsx
+++ b/data/osm/plant_update.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>electricity_production_GWh</t>
+          <t>electricity_generation_GWh</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
